--- a/Python/Walking_Gaits.xlsx
+++ b/Python/Walking_Gaits.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Creep" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Walk" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Quadrants" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
   <si>
     <t xml:space="preserve">Front Left</t>
   </si>
@@ -54,6 +55,18 @@
   </si>
   <si>
     <t xml:space="preserve">Test point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
   </si>
 </sst>
 </file>
@@ -221,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,6 +317,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -423,7 +440,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359361010319966"/>
+          <c:x val="0.359296293511766"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -436,10 +453,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850101314735404"/>
-          <c:y val="0.114095202815336"/>
-          <c:w val="0.893124734932378"/>
-          <c:h val="0.675495462122615"/>
+          <c:x val="0.0850312006616044"/>
+          <c:y val="0.114158636026686"/>
+          <c:w val="0.892940380422525"/>
+          <c:h val="0.67531504818384"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2800,11 +2817,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="28164349"/>
-        <c:axId val="55938374"/>
+        <c:axId val="43082435"/>
+        <c:axId val="73362361"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28164349"/>
+        <c:axId val="43082435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,14 +2894,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55938374"/>
+        <c:crossAx val="73362361"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55938374"/>
+        <c:axId val="73362361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2968,7 +2985,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28164349"/>
+        <c:crossAx val="43082435"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3041,7 +3058,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359364690357244"/>
+          <c:x val="0.359302150699353"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -3054,10 +3071,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.084975021208408"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.893251013290602"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0849751842382313"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893066626560385"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3108,7 +3125,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3122,7 +3139,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3136,7 +3153,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3150,7 +3167,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3164,7 +3181,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3178,7 +3195,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3192,7 +3209,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3206,7 +3223,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3220,7 +3237,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3234,7 +3251,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3248,7 +3265,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3276,7 +3293,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3290,7 +3307,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3304,7 +3321,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3318,7 +3335,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3332,7 +3349,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3346,7 +3363,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3360,7 +3377,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3374,7 +3391,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3388,7 +3405,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3402,7 +3419,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3416,7 +3433,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3444,7 +3461,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3458,7 +3475,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3472,7 +3489,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3486,7 +3503,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3500,7 +3517,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3514,7 +3531,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3528,7 +3545,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3542,7 +3559,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3556,7 +3573,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3570,7 +3587,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3584,7 +3601,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3612,7 +3629,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3626,7 +3643,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3640,7 +3657,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3654,7 +3671,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3668,7 +3685,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3682,7 +3699,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3696,7 +3713,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3710,7 +3727,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3724,7 +3741,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3738,7 +3755,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3752,7 +3769,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3780,7 +3797,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3794,7 +3811,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3808,7 +3825,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3822,7 +3839,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3836,7 +3853,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3850,7 +3867,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3864,7 +3881,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3878,7 +3895,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3892,7 +3909,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3906,7 +3923,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3920,7 +3937,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3948,7 +3965,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3962,7 +3979,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3976,7 +3993,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -3990,7 +4007,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4004,7 +4021,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4018,7 +4035,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4032,7 +4049,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4046,7 +4063,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4060,7 +4077,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4074,7 +4091,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4088,7 +4105,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4116,7 +4133,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4130,7 +4147,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4144,7 +4161,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4158,7 +4175,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4172,7 +4189,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4186,7 +4203,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4200,7 +4217,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4214,7 +4231,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4228,7 +4245,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4242,7 +4259,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4256,7 +4273,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4284,7 +4301,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4298,7 +4315,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4312,7 +4329,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4326,7 +4343,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4340,7 +4357,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4354,7 +4371,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4368,7 +4385,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4382,7 +4399,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4396,7 +4413,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4410,7 +4427,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4424,7 +4441,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4452,7 +4469,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4466,7 +4483,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -4480,7 +4497,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -5718,11 +5735,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92752918"/>
-        <c:axId val="2927156"/>
+        <c:axId val="13098223"/>
+        <c:axId val="89090461"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92752918"/>
+        <c:axId val="13098223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,14 +5812,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2927156"/>
+        <c:crossAx val="89090461"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2927156"/>
+        <c:axId val="89090461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5886,7 +5903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92752918"/>
+        <c:crossAx val="13098223"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -5959,7 +5976,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359741728720897"/>
+          <c:x val="0.359903744924049"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -5972,10 +5989,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850221510038647"/>
-          <c:y val="0.113888888888889"/>
-          <c:w val="0.893251013290602"/>
-          <c:h val="0.675185185185185"/>
+          <c:x val="0.0849751842382313"/>
+          <c:y val="0.113952195664258"/>
+          <c:w val="0.893066626560385"/>
+          <c:h val="0.675004632203076"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6026,7 +6043,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6040,7 +6057,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6054,7 +6071,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6068,7 +6085,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6082,7 +6099,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6096,7 +6113,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6110,7 +6127,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6124,7 +6141,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6138,7 +6155,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6152,7 +6169,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6166,7 +6183,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6194,7 +6211,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6208,7 +6225,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6222,7 +6239,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6236,7 +6253,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6250,7 +6267,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6264,7 +6281,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6278,7 +6295,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6292,7 +6309,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6306,7 +6323,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6320,7 +6337,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6334,7 +6351,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6362,7 +6379,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6376,7 +6393,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6390,7 +6407,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6404,7 +6421,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6418,7 +6435,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6432,7 +6449,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6446,7 +6463,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6460,7 +6477,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6474,7 +6491,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6488,7 +6505,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6502,7 +6519,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6530,7 +6547,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6544,7 +6561,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6558,7 +6575,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6572,7 +6589,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6586,7 +6603,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6600,7 +6617,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6614,7 +6631,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6628,7 +6645,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6642,7 +6659,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6656,7 +6673,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6670,7 +6687,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6698,7 +6715,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6712,7 +6729,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6726,7 +6743,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6740,7 +6757,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6754,7 +6771,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6768,7 +6785,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6782,7 +6799,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6796,7 +6813,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6810,7 +6827,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6824,7 +6841,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6838,7 +6855,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6866,7 +6883,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6880,7 +6897,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6894,7 +6911,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6908,7 +6925,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6922,7 +6939,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6936,7 +6953,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6950,7 +6967,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6964,7 +6981,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6978,7 +6995,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -6992,7 +7009,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7006,7 +7023,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7034,7 +7051,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7048,7 +7065,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7062,7 +7079,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7076,7 +7093,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7090,7 +7107,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7104,7 +7121,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7118,7 +7135,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7132,7 +7149,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7146,7 +7163,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7160,7 +7177,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7174,7 +7191,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7202,7 +7219,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7216,7 +7233,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7230,7 +7247,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7244,7 +7261,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7258,7 +7275,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7272,7 +7289,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7286,7 +7303,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7300,7 +7317,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7314,7 +7331,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7328,7 +7345,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7342,7 +7359,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7370,7 +7387,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7384,7 +7401,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -7398,7 +7415,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -8636,11 +8653,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3045357"/>
-        <c:axId val="99127546"/>
+        <c:axId val="43370873"/>
+        <c:axId val="50120442"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3045357"/>
+        <c:axId val="43370873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,14 +8730,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99127546"/>
+        <c:crossAx val="50120442"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99127546"/>
+        <c:axId val="50120442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -8804,7 +8821,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3045357"/>
+        <c:crossAx val="43370873"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -8877,7 +8894,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359741728720897"/>
+          <c:x val="0.359903744924049"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -8890,10 +8907,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850221510038647"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.893251013290602"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0849751842382313"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893066626560385"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8944,7 +8961,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -8958,7 +8975,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -8972,7 +8989,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -8986,7 +9003,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9000,7 +9017,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9014,7 +9031,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9028,7 +9045,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9042,7 +9059,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9056,7 +9073,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9070,7 +9087,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9084,7 +9101,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9112,7 +9129,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9126,7 +9143,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9140,7 +9157,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9154,7 +9171,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9168,7 +9185,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9182,7 +9199,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9196,7 +9213,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9210,7 +9227,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9224,7 +9241,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9238,7 +9255,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9252,7 +9269,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9280,7 +9297,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9294,7 +9311,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9308,7 +9325,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9322,7 +9339,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9336,7 +9353,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9350,7 +9367,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9364,7 +9381,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9378,7 +9395,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9392,7 +9409,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9406,7 +9423,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9420,7 +9437,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9448,7 +9465,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9462,7 +9479,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9476,7 +9493,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9490,7 +9507,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9504,7 +9521,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9518,7 +9535,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9532,7 +9549,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9546,7 +9563,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9560,7 +9577,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9574,7 +9591,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9588,7 +9605,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9616,7 +9633,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9630,7 +9647,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9644,7 +9661,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9658,7 +9675,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9672,7 +9689,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9686,7 +9703,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9700,7 +9717,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9714,7 +9731,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9728,7 +9745,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9742,7 +9759,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9756,7 +9773,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9784,7 +9801,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9798,7 +9815,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9812,7 +9829,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9826,7 +9843,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9840,7 +9857,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9854,7 +9871,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9868,7 +9885,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9882,7 +9899,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9896,7 +9913,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9910,7 +9927,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9924,7 +9941,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9952,7 +9969,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9966,7 +9983,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9980,7 +9997,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -9994,7 +10011,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10008,7 +10025,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10022,7 +10039,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10036,7 +10053,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10050,7 +10067,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10064,7 +10081,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10078,7 +10095,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10092,7 +10109,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10120,7 +10137,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10134,7 +10151,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10148,7 +10165,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10162,7 +10179,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10176,7 +10193,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10190,7 +10207,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10204,7 +10221,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10218,7 +10235,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10232,7 +10249,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10246,7 +10263,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10260,7 +10277,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10288,7 +10305,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10302,7 +10319,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -10316,7 +10333,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11554,11 +11571,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="61553527"/>
-        <c:axId val="89179423"/>
+        <c:axId val="92395003"/>
+        <c:axId val="82183916"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61553527"/>
+        <c:axId val="92395003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11631,14 +11648,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89179423"/>
+        <c:crossAx val="82183916"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89179423"/>
+        <c:axId val="82183916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -11722,7 +11739,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61553527"/>
+        <c:crossAx val="92395003"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -11795,7 +11812,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359179431566581"/>
+          <c:x val="0.35912294440094"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -11808,10 +11825,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0849981153411233"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.893516773464003"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0849647611589663"/>
+          <c:y val="0.113931085587255"/>
+          <c:w val="0.893343774471417"/>
+          <c:h val="0.675064838829196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -11862,7 +11879,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11876,7 +11893,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11890,7 +11907,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11904,7 +11921,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11918,7 +11935,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11932,7 +11949,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11946,7 +11963,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11960,7 +11977,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11974,7 +11991,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -11988,7 +12005,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12002,7 +12019,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12030,7 +12047,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12044,7 +12061,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12058,7 +12075,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12072,7 +12089,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12086,7 +12103,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12100,7 +12117,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12114,7 +12131,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12128,7 +12145,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12142,7 +12159,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12156,7 +12173,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12170,7 +12187,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12198,7 +12215,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12212,7 +12229,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12226,7 +12243,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12240,7 +12257,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12254,7 +12271,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12268,7 +12285,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12282,7 +12299,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12296,7 +12313,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12310,7 +12327,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12324,7 +12341,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12338,7 +12355,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12366,7 +12383,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12380,7 +12397,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12394,7 +12411,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12408,7 +12425,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12422,7 +12439,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12436,7 +12453,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12450,7 +12467,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12464,7 +12481,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12478,7 +12495,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12492,7 +12509,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12506,7 +12523,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12534,7 +12551,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12548,7 +12565,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12562,7 +12579,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12576,7 +12593,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12590,7 +12607,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12604,7 +12621,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12618,7 +12635,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12632,7 +12649,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12646,7 +12663,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12660,7 +12677,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12674,7 +12691,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12702,7 +12719,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12716,7 +12733,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12730,7 +12747,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12744,7 +12761,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12758,7 +12775,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12772,7 +12789,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12786,7 +12803,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12800,7 +12817,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12814,7 +12831,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12828,7 +12845,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12842,7 +12859,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12870,7 +12887,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12884,7 +12901,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12898,7 +12915,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12912,7 +12929,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12926,7 +12943,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12940,7 +12957,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12954,7 +12971,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12968,7 +12985,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12982,7 +12999,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -12996,7 +13013,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13010,7 +13027,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13038,7 +13055,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13052,7 +13069,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13066,7 +13083,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13080,7 +13097,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13094,7 +13111,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13108,7 +13125,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13122,7 +13139,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13136,7 +13153,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13150,7 +13167,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13164,7 +13181,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13178,7 +13195,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13206,7 +13223,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13220,7 +13237,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -13234,7 +13251,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14472,11 +14489,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="38104458"/>
-        <c:axId val="84724947"/>
+        <c:axId val="2967908"/>
+        <c:axId val="2189537"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38104458"/>
+        <c:axId val="2967908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14549,14 +14566,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84724947"/>
+        <c:crossAx val="2189537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84724947"/>
+        <c:axId val="2189537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -14640,7 +14657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38104458"/>
+        <c:crossAx val="2967908"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -14713,7 +14730,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359376412110258"/>
+          <c:x val="0.359307698331898"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -14726,10 +14743,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850429281518301"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.89344780840488"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0850497298143942"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893257107056152"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14780,7 +14797,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14794,7 +14811,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14808,7 +14825,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14822,7 +14839,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14836,7 +14853,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14850,7 +14867,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14864,7 +14881,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14878,7 +14895,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14892,7 +14909,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14906,7 +14923,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14920,7 +14937,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14948,7 +14965,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14962,7 +14979,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14976,7 +14993,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -14990,7 +15007,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15004,7 +15021,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15018,7 +15035,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15032,7 +15049,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15046,7 +15063,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15060,7 +15077,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15074,7 +15091,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15088,7 +15105,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15116,7 +15133,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15130,7 +15147,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15144,7 +15161,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15158,7 +15175,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15172,7 +15189,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15186,7 +15203,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15200,7 +15217,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15214,7 +15231,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15228,7 +15245,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15242,7 +15259,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15256,7 +15273,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15284,7 +15301,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15298,7 +15315,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15312,7 +15329,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15326,7 +15343,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15340,7 +15357,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15354,7 +15371,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15368,7 +15385,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15382,7 +15399,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15396,7 +15413,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15410,7 +15427,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15424,7 +15441,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15452,7 +15469,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15466,7 +15483,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15480,7 +15497,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15494,7 +15511,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15508,7 +15525,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15522,7 +15539,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15536,7 +15553,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15550,7 +15567,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15564,7 +15581,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15578,7 +15595,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15592,7 +15609,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15620,7 +15637,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15634,7 +15651,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15648,7 +15665,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15662,7 +15679,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15676,7 +15693,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15690,7 +15707,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15704,7 +15721,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15718,7 +15735,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15732,7 +15749,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15746,7 +15763,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15760,7 +15777,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15788,7 +15805,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15802,7 +15819,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15816,7 +15833,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15830,7 +15847,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15844,7 +15861,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15858,7 +15875,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15872,7 +15889,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15886,7 +15903,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15900,7 +15917,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15914,7 +15931,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15928,7 +15945,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15956,7 +15973,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15970,7 +15987,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15984,7 +16001,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -15998,7 +16015,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16012,7 +16029,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16026,7 +16043,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16040,7 +16057,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16054,7 +16071,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16068,7 +16085,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16082,7 +16099,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16096,7 +16113,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16124,7 +16141,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16138,7 +16155,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -16152,7 +16169,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17390,11 +17407,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25171223"/>
-        <c:axId val="2291899"/>
+        <c:axId val="79972457"/>
+        <c:axId val="5155757"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25171223"/>
+        <c:axId val="79972457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17467,14 +17484,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2291899"/>
+        <c:crossAx val="5155757"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2291899"/>
+        <c:axId val="5155757"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -17558,7 +17575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25171223"/>
+        <c:crossAx val="79972457"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -17631,7 +17648,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359511974694984"/>
+          <c:x val="0.359464327668572"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -17644,10 +17661,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850429281518301"/>
-          <c:y val="0.113888888888889"/>
-          <c:w val="0.89344780840488"/>
-          <c:h val="0.675185185185185"/>
+          <c:x val="0.0850497298143942"/>
+          <c:y val="0.113952195664258"/>
+          <c:w val="0.893257107056152"/>
+          <c:h val="0.675004632203076"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -17698,7 +17715,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17712,7 +17729,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17726,7 +17743,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17740,7 +17757,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17754,7 +17771,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17768,7 +17785,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17782,7 +17799,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17796,7 +17813,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17810,7 +17827,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17824,7 +17841,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17838,7 +17855,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17866,7 +17883,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17880,7 +17897,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17894,7 +17911,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17908,7 +17925,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17922,7 +17939,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17936,7 +17953,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17950,7 +17967,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17964,7 +17981,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17978,7 +17995,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -17992,7 +18009,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18006,7 +18023,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18034,7 +18051,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18048,7 +18065,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18062,7 +18079,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18076,7 +18093,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18090,7 +18107,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18104,7 +18121,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18118,7 +18135,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18132,7 +18149,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18146,7 +18163,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18160,7 +18177,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18174,7 +18191,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18202,7 +18219,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18216,7 +18233,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18230,7 +18247,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18244,7 +18261,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18258,7 +18275,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18272,7 +18289,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18286,7 +18303,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18300,7 +18317,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18314,7 +18331,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18328,7 +18345,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18342,7 +18359,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18370,7 +18387,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18384,7 +18401,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18398,7 +18415,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18412,7 +18429,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18426,7 +18443,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18440,7 +18457,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18454,7 +18471,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18468,7 +18485,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18482,7 +18499,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18496,7 +18513,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18510,7 +18527,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18538,7 +18555,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18552,7 +18569,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18566,7 +18583,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18580,7 +18597,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18594,7 +18611,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18608,7 +18625,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18622,7 +18639,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18636,7 +18653,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18650,7 +18667,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18664,7 +18681,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18678,7 +18695,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18706,7 +18723,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18720,7 +18737,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18734,7 +18751,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18748,7 +18765,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18762,7 +18779,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18776,7 +18793,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18790,7 +18807,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18804,7 +18821,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18818,7 +18835,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18832,7 +18849,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18846,7 +18863,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18874,7 +18891,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18888,7 +18905,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18902,7 +18919,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18916,7 +18933,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18930,7 +18947,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18944,7 +18961,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18958,7 +18975,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18972,7 +18989,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -18986,7 +19003,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -19000,7 +19017,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -19014,7 +19031,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -19042,7 +19059,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -19056,7 +19073,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -19070,7 +19087,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20308,11 +20325,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="82506194"/>
-        <c:axId val="15659171"/>
+        <c:axId val="62352982"/>
+        <c:axId val="57252993"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82506194"/>
+        <c:axId val="62352982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20385,14 +20402,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15659171"/>
+        <c:crossAx val="57252993"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15659171"/>
+        <c:axId val="57252993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -20476,7 +20493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82506194"/>
+        <c:crossAx val="62352982"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -20549,7 +20566,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359511974694984"/>
+          <c:x val="0.359464327668572"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -20562,10 +20579,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850429281518301"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.89344780840488"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0850497298143942"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893257107056152"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -20616,7 +20633,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20630,7 +20647,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20644,7 +20661,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20658,7 +20675,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20672,7 +20689,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20686,7 +20703,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20700,7 +20717,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20714,7 +20731,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20728,7 +20745,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20742,7 +20759,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20756,7 +20773,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20784,7 +20801,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20798,7 +20815,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20812,7 +20829,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20826,7 +20843,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20840,7 +20857,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20854,7 +20871,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20868,7 +20885,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20882,7 +20899,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20896,7 +20913,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20910,7 +20927,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20924,7 +20941,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20952,7 +20969,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20966,7 +20983,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20980,7 +20997,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -20994,7 +21011,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21008,7 +21025,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21022,7 +21039,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21036,7 +21053,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21050,7 +21067,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21064,7 +21081,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21078,7 +21095,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21092,7 +21109,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21120,7 +21137,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21134,7 +21151,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21148,7 +21165,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21162,7 +21179,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21176,7 +21193,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21190,7 +21207,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21204,7 +21221,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21218,7 +21235,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21232,7 +21249,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21246,7 +21263,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21260,7 +21277,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21288,7 +21305,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21302,7 +21319,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21316,7 +21333,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21330,7 +21347,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21344,7 +21361,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21358,7 +21375,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21372,7 +21389,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21386,7 +21403,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21400,7 +21417,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21414,7 +21431,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21428,7 +21445,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21456,7 +21473,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21470,7 +21487,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21484,7 +21501,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21498,7 +21515,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21512,7 +21529,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21526,7 +21543,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21540,7 +21557,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21554,7 +21571,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21568,7 +21585,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21582,7 +21599,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21596,7 +21613,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21624,7 +21641,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21638,7 +21655,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21652,7 +21669,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21666,7 +21683,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21680,7 +21697,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21694,7 +21711,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21708,7 +21725,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21722,7 +21739,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21736,7 +21753,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21750,7 +21767,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21764,7 +21781,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21792,7 +21809,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21806,7 +21823,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21820,7 +21837,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21834,7 +21851,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21848,7 +21865,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21862,7 +21879,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21876,7 +21893,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21890,7 +21907,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21904,7 +21921,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21918,7 +21935,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21932,7 +21949,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21960,7 +21977,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21974,7 +21991,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -21988,7 +22005,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -23226,11 +23243,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="22426947"/>
-        <c:axId val="57143705"/>
+        <c:axId val="16527494"/>
+        <c:axId val="89242341"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22426947"/>
+        <c:axId val="16527494"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23303,14 +23320,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57143705"/>
+        <c:crossAx val="89242341"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57143705"/>
+        <c:axId val="89242341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -23394,7 +23411,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22426947"/>
+        <c:crossAx val="16527494"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -23467,7 +23484,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359364690357244"/>
+          <c:x val="0.359302150699353"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -23480,10 +23497,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.084975021208408"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.893251013290602"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0849751842382313"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893066626560385"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -25844,11 +25861,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="26333094"/>
-        <c:axId val="81739889"/>
+        <c:axId val="84200095"/>
+        <c:axId val="56369471"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26333094"/>
+        <c:axId val="84200095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25921,14 +25938,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81739889"/>
+        <c:crossAx val="56369471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81739889"/>
+        <c:axId val="56369471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -26012,7 +26029,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26333094"/>
+        <c:crossAx val="84200095"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -26085,7 +26102,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359741728720897"/>
+          <c:x val="0.359903744924049"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -26098,10 +26115,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850221510038647"/>
-          <c:y val="0.113888888888889"/>
-          <c:w val="0.893251013290602"/>
-          <c:h val="0.675185185185185"/>
+          <c:x val="0.0849751842382313"/>
+          <c:y val="0.113952195664258"/>
+          <c:w val="0.893066626560385"/>
+          <c:h val="0.675004632203076"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -28462,11 +28479,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81349657"/>
-        <c:axId val="15049923"/>
+        <c:axId val="97401344"/>
+        <c:axId val="81255758"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81349657"/>
+        <c:axId val="97401344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28539,14 +28556,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15049923"/>
+        <c:crossAx val="81255758"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15049923"/>
+        <c:axId val="81255758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -28630,7 +28647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81349657"/>
+        <c:crossAx val="97401344"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -28703,7 +28720,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359741728720897"/>
+          <c:x val="0.359903744924049"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -28716,10 +28733,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850221510038647"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.893251013290602"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0849751842382313"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893066626560385"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -31080,11 +31097,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="85416825"/>
-        <c:axId val="83890666"/>
+        <c:axId val="74073943"/>
+        <c:axId val="43671991"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85416825"/>
+        <c:axId val="74073943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31157,14 +31174,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83890666"/>
+        <c:crossAx val="43671991"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83890666"/>
+        <c:axId val="43671991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -31248,7 +31265,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85416825"/>
+        <c:crossAx val="74073943"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -31321,7 +31338,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359179431566581"/>
+          <c:x val="0.35912294440094"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -31334,10 +31351,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0849981153411233"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.893516773464003"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0849647611589663"/>
+          <c:y val="0.113931085587255"/>
+          <c:w val="0.893343774471417"/>
+          <c:h val="0.675064838829196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -33698,11 +33715,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="75204007"/>
-        <c:axId val="98290591"/>
+        <c:axId val="86487703"/>
+        <c:axId val="46958039"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75204007"/>
+        <c:axId val="86487703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33775,14 +33792,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98290591"/>
+        <c:crossAx val="46958039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98290591"/>
+        <c:axId val="46958039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -33866,7 +33883,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75204007"/>
+        <c:crossAx val="86487703"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -33939,7 +33956,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359376412110258"/>
+          <c:x val="0.359307698331898"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -33952,10 +33969,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850881156800723"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.89344780840488"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0850497298143942"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893257107056152"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -36316,11 +36333,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="66799442"/>
-        <c:axId val="13813454"/>
+        <c:axId val="60013342"/>
+        <c:axId val="97489175"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66799442"/>
+        <c:axId val="60013342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36393,14 +36410,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13813454"/>
+        <c:crossAx val="97489175"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13813454"/>
+        <c:axId val="97489175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -36484,7 +36501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66799442"/>
+        <c:crossAx val="60013342"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -36557,7 +36574,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359511974694984"/>
+          <c:x val="0.359464327668572"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -36570,10 +36587,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850881156800723"/>
-          <c:y val="0.113888888888889"/>
-          <c:w val="0.89344780840488"/>
-          <c:h val="0.675185185185185"/>
+          <c:x val="0.0850497298143942"/>
+          <c:y val="0.113952195664258"/>
+          <c:w val="0.893257107056152"/>
+          <c:h val="0.675004632203076"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -38934,11 +38951,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="80449766"/>
-        <c:axId val="87652028"/>
+        <c:axId val="86143055"/>
+        <c:axId val="64493342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80449766"/>
+        <c:axId val="86143055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39011,14 +39028,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87652028"/>
+        <c:crossAx val="64493342"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87652028"/>
+        <c:axId val="64493342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -39102,7 +39119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80449766"/>
+        <c:crossAx val="86143055"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -39175,7 +39192,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359511974694984"/>
+          <c:x val="0.359464327668572"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -39188,10 +39205,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850881156800723"/>
-          <c:y val="0.113909983330246"/>
-          <c:w val="0.89344780840488"/>
-          <c:h val="0.675310242637525"/>
+          <c:x val="0.0850497298143942"/>
+          <c:y val="0.113973313565604"/>
+          <c:w val="0.893257107056152"/>
+          <c:h val="0.675129725722758"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -41552,11 +41569,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="67528764"/>
-        <c:axId val="65472052"/>
+        <c:axId val="80458305"/>
+        <c:axId val="10935714"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67528764"/>
+        <c:axId val="80458305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -41629,14 +41646,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65472052"/>
+        <c:crossAx val="10935714"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65472052"/>
+        <c:axId val="10935714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -41720,7 +41737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67528764"/>
+        <c:crossAx val="80458305"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -41793,7 +41810,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.359361010319966"/>
+          <c:x val="0.359296293511766"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -41806,10 +41823,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0850101314735404"/>
-          <c:y val="0.114095202815336"/>
-          <c:w val="0.893124734932378"/>
-          <c:h val="0.675495462122615"/>
+          <c:x val="0.0850312006616044"/>
+          <c:y val="0.114158636026686"/>
+          <c:w val="0.892940380422525"/>
+          <c:h val="0.67531504818384"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -41860,7 +41877,7 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41874,7 +41891,7 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41888,7 +41905,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41902,7 +41919,7 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41916,7 +41933,7 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41930,7 +41947,7 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41944,7 +41961,7 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41958,7 +41975,7 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41972,7 +41989,7 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -41986,7 +42003,7 @@
             <c:idx val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42000,7 +42017,7 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42028,7 +42045,7 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42042,7 +42059,7 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42056,7 +42073,7 @@
             <c:idx val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42070,7 +42087,7 @@
             <c:idx val="16"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42084,7 +42101,7 @@
             <c:idx val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42098,7 +42115,7 @@
             <c:idx val="18"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42112,7 +42129,7 @@
             <c:idx val="19"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42126,7 +42143,7 @@
             <c:idx val="20"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42140,7 +42157,7 @@
             <c:idx val="21"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42154,7 +42171,7 @@
             <c:idx val="22"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42168,7 +42185,7 @@
             <c:idx val="23"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42196,7 +42213,7 @@
             <c:idx val="25"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42210,7 +42227,7 @@
             <c:idx val="26"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42224,7 +42241,7 @@
             <c:idx val="27"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42238,7 +42255,7 @@
             <c:idx val="28"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42252,7 +42269,7 @@
             <c:idx val="29"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42266,7 +42283,7 @@
             <c:idx val="30"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42280,7 +42297,7 @@
             <c:idx val="31"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42294,7 +42311,7 @@
             <c:idx val="32"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42308,7 +42325,7 @@
             <c:idx val="33"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42322,7 +42339,7 @@
             <c:idx val="34"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42336,7 +42353,7 @@
             <c:idx val="35"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42364,7 +42381,7 @@
             <c:idx val="37"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42378,7 +42395,7 @@
             <c:idx val="38"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42392,7 +42409,7 @@
             <c:idx val="39"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42406,7 +42423,7 @@
             <c:idx val="40"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42420,7 +42437,7 @@
             <c:idx val="41"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42434,7 +42451,7 @@
             <c:idx val="42"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42448,7 +42465,7 @@
             <c:idx val="43"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42462,7 +42479,7 @@
             <c:idx val="44"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42476,7 +42493,7 @@
             <c:idx val="45"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42490,7 +42507,7 @@
             <c:idx val="46"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42504,7 +42521,7 @@
             <c:idx val="47"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42532,7 +42549,7 @@
             <c:idx val="49"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42546,7 +42563,7 @@
             <c:idx val="50"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42560,7 +42577,7 @@
             <c:idx val="51"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42574,7 +42591,7 @@
             <c:idx val="52"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42588,7 +42605,7 @@
             <c:idx val="53"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42602,7 +42619,7 @@
             <c:idx val="54"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42616,7 +42633,7 @@
             <c:idx val="55"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42630,7 +42647,7 @@
             <c:idx val="56"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42644,7 +42661,7 @@
             <c:idx val="57"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42658,7 +42675,7 @@
             <c:idx val="58"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42672,7 +42689,7 @@
             <c:idx val="59"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42700,7 +42717,7 @@
             <c:idx val="61"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42714,7 +42731,7 @@
             <c:idx val="62"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42728,7 +42745,7 @@
             <c:idx val="63"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42742,7 +42759,7 @@
             <c:idx val="64"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42756,7 +42773,7 @@
             <c:idx val="65"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42770,7 +42787,7 @@
             <c:idx val="66"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42784,7 +42801,7 @@
             <c:idx val="67"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42798,7 +42815,7 @@
             <c:idx val="68"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42812,7 +42829,7 @@
             <c:idx val="69"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42826,7 +42843,7 @@
             <c:idx val="70"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42840,7 +42857,7 @@
             <c:idx val="71"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42868,7 +42885,7 @@
             <c:idx val="73"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42882,7 +42899,7 @@
             <c:idx val="74"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42896,7 +42913,7 @@
             <c:idx val="75"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42910,7 +42927,7 @@
             <c:idx val="76"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42924,7 +42941,7 @@
             <c:idx val="77"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42938,7 +42955,7 @@
             <c:idx val="78"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42952,7 +42969,7 @@
             <c:idx val="79"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42966,7 +42983,7 @@
             <c:idx val="80"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42980,7 +42997,7 @@
             <c:idx val="81"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -42994,7 +43011,7 @@
             <c:idx val="82"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43008,7 +43025,7 @@
             <c:idx val="83"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43036,7 +43053,7 @@
             <c:idx val="85"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43050,7 +43067,7 @@
             <c:idx val="86"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43064,7 +43081,7 @@
             <c:idx val="87"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43078,7 +43095,7 @@
             <c:idx val="88"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43092,7 +43109,7 @@
             <c:idx val="89"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="83caff"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43106,7 +43123,7 @@
             <c:idx val="90"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43120,7 +43137,7 @@
             <c:idx val="91"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="aecf00"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43134,7 +43151,7 @@
             <c:idx val="92"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4b1f6f"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43148,7 +43165,7 @@
             <c:idx val="93"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff950e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43162,7 +43179,7 @@
             <c:idx val="94"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c5000b"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43176,7 +43193,7 @@
             <c:idx val="95"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43204,7 +43221,7 @@
             <c:idx val="97"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43218,7 +43235,7 @@
             <c:idx val="98"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -43232,7 +43249,7 @@
             <c:idx val="99"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="28800">
                 <a:solidFill>
@@ -44470,11 +44487,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="38034581"/>
-        <c:axId val="50069658"/>
+        <c:axId val="49420795"/>
+        <c:axId val="43947582"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38034581"/>
+        <c:axId val="49420795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -44547,14 +44564,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50069658"/>
+        <c:crossAx val="43947582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50069658"/>
+        <c:axId val="43947582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -44638,7 +44655,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38034581"/>
+        <c:crossAx val="49420795"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -44676,10 +44693,10 @@
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44687,8 +44704,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="325440"/>
-        <a:ext cx="7639200" cy="1943280"/>
+        <a:off x="10468440" y="325440"/>
+        <a:ext cx="4788000" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44706,10 +44723,10 @@
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44717,8 +44734,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="2276280"/>
-        <a:ext cx="7638120" cy="1943280"/>
+        <a:off x="10468440" y="2276280"/>
+        <a:ext cx="4786920" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44736,10 +44753,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44747,8 +44764,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="4226400"/>
-        <a:ext cx="7638120" cy="1943640"/>
+        <a:off x="10468440" y="4226400"/>
+        <a:ext cx="4786920" cy="1942560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44766,10 +44783,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44777,8 +44794,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="6177240"/>
-        <a:ext cx="7638120" cy="1943280"/>
+        <a:off x="10468440" y="6177240"/>
+        <a:ext cx="4786920" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44790,16 +44807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>806040</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44807,8 +44824,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16486560" y="325440"/>
-        <a:ext cx="7966800" cy="1944000"/>
+        <a:off x="15258960" y="325440"/>
+        <a:ext cx="4596840" cy="1942920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44820,16 +44837,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>805680</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44837,8 +44854,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16486560" y="2276280"/>
-        <a:ext cx="7966440" cy="1943280"/>
+        <a:off x="15258960" y="2276280"/>
+        <a:ext cx="4596480" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44850,16 +44867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812520</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>808920</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44867,8 +44884,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16489800" y="4226400"/>
-        <a:ext cx="7966440" cy="1943640"/>
+        <a:off x="15262200" y="4226400"/>
+        <a:ext cx="4596480" cy="1942560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44880,16 +44897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812520</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>808920</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44897,8 +44914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16489800" y="6177240"/>
-        <a:ext cx="7966440" cy="1943280"/>
+        <a:off x="15262200" y="6177240"/>
+        <a:ext cx="4596480" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44921,10 +44938,10 @@
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>807840</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44932,8 +44949,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="325440"/>
-        <a:ext cx="7639200" cy="1943280"/>
+        <a:off x="10468440" y="325440"/>
+        <a:ext cx="4788000" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44951,10 +44968,10 @@
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44962,8 +44979,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="2276280"/>
-        <a:ext cx="7638120" cy="1943280"/>
+        <a:off x="10468440" y="2276280"/>
+        <a:ext cx="4786920" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44981,10 +44998,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44992,8 +45009,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="4226400"/>
-        <a:ext cx="7638120" cy="1943640"/>
+        <a:off x="10468440" y="4226400"/>
+        <a:ext cx="4786920" cy="1942560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -45011,10 +45028,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>806760</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -45022,8 +45039,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8845920" y="6177240"/>
-        <a:ext cx="7638120" cy="1943280"/>
+        <a:off x="10468440" y="6177240"/>
+        <a:ext cx="4786920" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -45035,16 +45052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>806040</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -45052,8 +45069,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16486560" y="325440"/>
-        <a:ext cx="7966800" cy="1944000"/>
+        <a:off x="15258960" y="325440"/>
+        <a:ext cx="4596840" cy="1942920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -45065,16 +45082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>805680</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -45082,8 +45099,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16486560" y="2276280"/>
-        <a:ext cx="7966440" cy="1943280"/>
+        <a:off x="15258960" y="2276280"/>
+        <a:ext cx="4596480" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -45095,16 +45112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812520</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>808920</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -45112,8 +45129,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16489800" y="4226400"/>
-        <a:ext cx="7966440" cy="1943640"/>
+        <a:off x="15262200" y="4226400"/>
+        <a:ext cx="4596480" cy="1942560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -45125,16 +45142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812520</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>808920</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -45142,8 +45159,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16489800" y="6177240"/>
-        <a:ext cx="7966440" cy="1943280"/>
+        <a:off x="15262200" y="6177240"/>
+        <a:ext cx="4596480" cy="1942200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -45164,16 +45181,16 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="13.4336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.98469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.63265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48209,11 +48226,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="13.4336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.98469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.63265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51234,4 +51251,1027 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8979591836735"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.985507246376812</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.971014492753623</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.956521739130435</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.942028985507246</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.927536231884058</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.91304347826087</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.898550724637681</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.884057971014493</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.869565217391304</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.855072463768116</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0.840579710144927</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.826086956521739</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.811594202898551</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.797101449275362</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.782608695652174</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0.768115942028985</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0.753623188405797</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.72463768115942</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.710144927536232</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.681159420289855</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.652173913043478</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.63768115942029</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.623188405797101</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.608695652173913</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.594202898550725</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.579710144927536</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.565217391304348</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.550724637681159</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.536231884057971</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.521739130434783</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.507246376811594</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.492753623188406</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0.478260869565217</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0.449275362318841</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0.420289855072464</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>0.405797101449275</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>0.376811594202899</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.36231884057971</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.347826086956522</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.318840579710145</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.304347826086957</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.289855072463768</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.27536231884058</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.260869565217391</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.246376811594203</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.231884057971014</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.217391304347826</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.202898550724638</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.188405797101449</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.173913043478261</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.159420289855073</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.144927536231884</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.130434782608696</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0.115942028985507</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0.101449275362319</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0.0869565217391304</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0.072463768115942</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>0.0579710144927537</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>0.0434782608695652</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>0.0289855072463768</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>0.0144927536231884</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>